--- a/03/Data_To_Merge.xlsx
+++ b/03/Data_To_Merge.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Statistical_Programming\03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A44B087-8296-4DB0-96EE-D0F5DA8A5C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A57A5A-44E3-4DAD-90BF-FAD013EEE015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11430" yWindow="380" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="950" yWindow="860" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cars" sheetId="1" r:id="rId1"/>
-    <sheet name="Japan_Cars" sheetId="2" r:id="rId2"/>
-    <sheet name="USA_Cars" sheetId="3" r:id="rId3"/>
-    <sheet name="German_Cars" sheetId="4" r:id="rId4"/>
+    <sheet name="Japan_Cars" sheetId="2" r:id="rId1"/>
+    <sheet name="USA_Cars" sheetId="3" r:id="rId2"/>
+    <sheet name="German_Cars" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -39,9 +38,6 @@
     <t>Country</t>
   </si>
   <si>
-    <t>Color</t>
-  </si>
-  <si>
     <t>Volkswagen</t>
   </si>
   <si>
@@ -82,18 +78,6 @@
   </si>
   <si>
     <t>USA</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>Grey</t>
-  </si>
-  <si>
-    <t>Black</t>
   </si>
   <si>
     <t>Mazda</t>
@@ -450,135 +434,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="2.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBEC2A70-98C0-4D26-AFD8-451D958F3811}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -599,16 +459,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -616,13 +476,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>23000</v>
@@ -633,22 +493,22 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>24000</v>
+        <v>22000</v>
       </c>
       <c r="F3">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -656,13 +516,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>25000</v>
@@ -673,22 +533,22 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>22000</v>
+        <v>24000</v>
       </c>
       <c r="F5">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -696,12 +556,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5473056-BC51-46FA-BAFC-C8C4C5281EEB}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -722,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -739,13 +599,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>34000</v>
@@ -756,7 +616,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -765,33 +625,33 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3">
-        <v>25000</v>
+        <v>23</v>
+      </c>
+      <c r="E3" s="1">
+        <v>25100</v>
       </c>
       <c r="F3">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="1">
-        <v>25100</v>
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>25000</v>
       </c>
       <c r="F4">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -799,12 +659,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACB3C2A-EEAF-4E7B-8316-AAB66D2A402F}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -825,76 +685,76 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>27575</v>
+        <v>41200</v>
       </c>
       <c r="F2">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>41200</v>
+        <v>14</v>
+      </c>
+      <c r="E3" s="1">
+        <v>46950</v>
       </c>
       <c r="F3">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
       <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1">
-        <v>46950</v>
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>27575</v>
       </c>
       <c r="F4">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
